--- a/data_year/zb/文化/档案馆机构和人员情况.xlsx
+++ b/data_year/zb/文化/档案馆机构和人员情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,1012 +508,569 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307</v>
+        <v>223</v>
       </c>
       <c r="C2" t="n">
-        <v>3319</v>
+        <v>3833</v>
       </c>
       <c r="D2" t="n">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E2" t="n">
-        <v>23701</v>
+        <v>19750</v>
       </c>
       <c r="F2" t="n">
-        <v>494.3539</v>
+        <v>1417.3</v>
       </c>
       <c r="G2" t="n">
-        <v>336.2315</v>
+        <v>504.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4072.0394</v>
+        <v>7428.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3070</v>
+        <v>3194</v>
       </c>
       <c r="J2" t="n">
-        <v>631.7306</v>
+        <v>1809.2</v>
       </c>
       <c r="K2" t="n">
-        <v>13313.9803</v>
+        <v>32198.6</v>
       </c>
       <c r="L2" t="n">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="M2" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="N2" t="n">
-        <v>1865</v>
+        <v>1747</v>
       </c>
       <c r="O2" t="n">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="C3" t="n">
-        <v>3448</v>
+        <v>3843</v>
       </c>
       <c r="D3" t="n">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E3" t="n">
-        <v>23652</v>
+        <v>19985</v>
       </c>
       <c r="F3" t="n">
-        <v>575.3647</v>
+        <v>1564.5</v>
       </c>
       <c r="G3" t="n">
-        <v>342.0438</v>
+        <v>551.1</v>
       </c>
       <c r="H3" t="n">
-        <v>4129.7064</v>
+        <v>7828.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3100</v>
+        <v>3196</v>
       </c>
       <c r="J3" t="n">
-        <v>642.7595</v>
+        <v>1965.8</v>
       </c>
       <c r="K3" t="n">
-        <v>13756.6408</v>
+        <v>35445.5</v>
       </c>
       <c r="L3" t="n">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="M3" t="n">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="N3" t="n">
-        <v>2086</v>
+        <v>2121</v>
       </c>
       <c r="O3" t="n">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299</v>
+        <v>204</v>
       </c>
       <c r="C4" t="n">
-        <v>3435</v>
+        <v>3577</v>
       </c>
       <c r="D4" t="n">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E4" t="n">
-        <v>22825</v>
+        <v>18009</v>
       </c>
       <c r="F4" t="n">
-        <v>548.8496</v>
+        <v>1521.1</v>
       </c>
       <c r="G4" t="n">
-        <v>350.9964</v>
+        <v>627.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4301.1</v>
+        <v>8254.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3110</v>
+        <v>3237</v>
       </c>
       <c r="J4" t="n">
-        <v>720.5399</v>
+        <v>1827.4</v>
       </c>
       <c r="K4" t="n">
-        <v>14790.7</v>
+        <v>40547.7</v>
       </c>
       <c r="L4" t="n">
-        <v>75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>2109</v>
+        <v>2161</v>
       </c>
       <c r="O4" t="n">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="C5" t="n">
-        <v>3514</v>
+        <v>3579</v>
       </c>
       <c r="D5" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>23086</v>
+        <v>18106</v>
       </c>
       <c r="F5" t="n">
-        <v>602.6</v>
+        <v>1477.8</v>
       </c>
       <c r="G5" t="n">
-        <v>361.4</v>
+        <v>709.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4618.4</v>
+        <v>8900.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3121</v>
+        <v>3325</v>
       </c>
       <c r="J5" t="n">
-        <v>797.4</v>
+        <v>1927.6</v>
       </c>
       <c r="K5" t="n">
-        <v>15945.9</v>
+        <v>42454.5</v>
       </c>
       <c r="L5" t="n">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>85</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1770</v>
+        <v>2182</v>
       </c>
       <c r="O5" t="n">
-        <v>141</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="C6" t="n">
-        <v>3591</v>
+        <v>3538</v>
       </c>
       <c r="D6" t="n">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E6" t="n">
-        <v>23401</v>
+        <v>17863</v>
       </c>
       <c r="F6" t="n">
-        <v>813.9</v>
+        <v>1688.8</v>
       </c>
       <c r="G6" t="n">
-        <v>376.8</v>
+        <v>736</v>
       </c>
       <c r="H6" t="n">
-        <v>4868.3</v>
+        <v>9179.700000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>3127</v>
+        <v>3319</v>
       </c>
       <c r="J6" t="n">
-        <v>827.9</v>
+        <v>2041.8</v>
       </c>
       <c r="K6" t="n">
-        <v>17601.5</v>
+        <v>53470.3</v>
       </c>
       <c r="L6" t="n">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>99</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>1932</v>
+        <v>2129</v>
       </c>
       <c r="O6" t="n">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>301</v>
+        <v>176</v>
       </c>
       <c r="C7" t="n">
-        <v>3452</v>
+        <v>3457</v>
       </c>
       <c r="D7" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E7" t="n">
-        <v>23413</v>
+        <v>18386</v>
       </c>
       <c r="F7" t="n">
-        <v>868</v>
+        <v>1978.3</v>
       </c>
       <c r="G7" t="n">
-        <v>393.1</v>
+        <v>785.5</v>
       </c>
       <c r="H7" t="n">
-        <v>5132.3</v>
+        <v>9266.299999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>3142</v>
+        <v>3322</v>
       </c>
       <c r="J7" t="n">
-        <v>908.8</v>
+        <v>2102.4</v>
       </c>
       <c r="K7" t="n">
-        <v>18688.7</v>
+        <v>58641.7</v>
       </c>
       <c r="L7" t="n">
-        <v>105</v>
-      </c>
-      <c r="M7" t="n">
-        <v>63</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>2020</v>
+        <v>2263</v>
       </c>
       <c r="O7" t="n">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C8" t="n">
-        <v>3537</v>
+        <v>3521</v>
       </c>
       <c r="D8" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E8" t="n">
-        <v>22689</v>
+        <v>17511</v>
       </c>
       <c r="F8" t="n">
-        <v>1166.4</v>
+        <v>2033.7013</v>
       </c>
       <c r="G8" t="n">
-        <v>406.1</v>
+        <v>859.778987</v>
       </c>
       <c r="H8" t="n">
-        <v>5746.3</v>
+        <v>9707.8914</v>
       </c>
       <c r="I8" t="n">
-        <v>3154</v>
+        <v>3336</v>
       </c>
       <c r="J8" t="n">
-        <v>1277.2</v>
+        <v>2228.1558</v>
       </c>
       <c r="K8" t="n">
-        <v>21656.5</v>
+        <v>65062.4967</v>
       </c>
       <c r="L8" t="n">
-        <v>110</v>
-      </c>
-      <c r="M8" t="n">
-        <v>95</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>1699</v>
+        <v>2021</v>
       </c>
       <c r="O8" t="n">
-        <v>137</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C9" t="n">
-        <v>3737</v>
+        <v>3275</v>
       </c>
       <c r="D9" t="n">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E9" t="n">
-        <v>21399</v>
+        <v>16799</v>
       </c>
       <c r="F9" t="n">
-        <v>1244.9</v>
+        <v>2077.9509</v>
       </c>
       <c r="G9" t="n">
-        <v>421.9</v>
+        <v>949.3242749999999</v>
       </c>
       <c r="H9" t="n">
-        <v>5875.5</v>
+        <v>10151.6524</v>
       </c>
       <c r="I9" t="n">
-        <v>3161</v>
+        <v>3333</v>
       </c>
       <c r="J9" t="n">
-        <v>1393.3</v>
+        <v>2336.4861</v>
       </c>
       <c r="K9" t="n">
-        <v>23675.3</v>
+        <v>65371.1231</v>
       </c>
       <c r="L9" t="n">
-        <v>126</v>
-      </c>
-      <c r="M9" t="n">
-        <v>94</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>1985</v>
+        <v>1939</v>
       </c>
       <c r="O9" t="n">
-        <v>146</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="C10" t="n">
-        <v>3663</v>
+        <v>3119</v>
       </c>
       <c r="D10" t="n">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="E10" t="n">
-        <v>21414</v>
+        <v>22584</v>
       </c>
       <c r="F10" t="n">
-        <v>1257.4</v>
+        <v>1819.1</v>
       </c>
       <c r="G10" t="n">
-        <v>465.4</v>
+        <v>1050.9</v>
       </c>
       <c r="H10" t="n">
-        <v>6072.2</v>
+        <v>11222.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3170</v>
+        <v>3315</v>
       </c>
       <c r="J10" t="n">
-        <v>1505.3</v>
+        <v>2056</v>
       </c>
       <c r="K10" t="n">
-        <v>25051</v>
+        <v>75051.10000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>141</v>
-      </c>
-      <c r="M10" t="n">
-        <v>87</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1886</v>
+        <v>1739</v>
       </c>
       <c r="O10" t="n">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
-        <v>3626</v>
+        <v>3300</v>
       </c>
       <c r="D11" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="E11" t="n">
-        <v>20949</v>
+        <v>34349</v>
       </c>
       <c r="F11" t="n">
-        <v>1308</v>
+        <v>2140</v>
       </c>
       <c r="G11" t="n">
-        <v>473.3</v>
+        <v>1164.6</v>
       </c>
       <c r="H11" t="n">
-        <v>6687.4</v>
+        <v>13171.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3191</v>
+        <v>3337</v>
       </c>
       <c r="J11" t="n">
-        <v>1646.3</v>
+        <v>2203.8</v>
       </c>
       <c r="K11" t="n">
-        <v>28089.2</v>
+        <v>82850.7</v>
       </c>
       <c r="L11" t="n">
-        <v>167</v>
-      </c>
-      <c r="M11" t="n">
-        <v>96</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1814</v>
+        <v>1566</v>
       </c>
       <c r="O11" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>3833</v>
+        <v>3413</v>
       </c>
       <c r="D12" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E12" t="n">
-        <v>19750</v>
+        <v>35028</v>
       </c>
       <c r="F12" t="n">
-        <v>1417.3</v>
+        <v>2064.4</v>
       </c>
       <c r="G12" t="n">
-        <v>504.4</v>
+        <v>1268.4</v>
       </c>
       <c r="H12" t="n">
-        <v>7428.6</v>
+        <v>14584.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3194</v>
+        <v>3341</v>
       </c>
       <c r="J12" t="n">
-        <v>1809.2</v>
+        <v>2401</v>
       </c>
       <c r="K12" t="n">
-        <v>32198.6</v>
+        <v>91789.8</v>
       </c>
       <c r="L12" t="n">
-        <v>160</v>
-      </c>
-      <c r="M12" t="n">
-        <v>111</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1747</v>
+        <v>1584</v>
       </c>
       <c r="O12" t="n">
-        <v>167</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="C13" t="n">
-        <v>3843</v>
+        <v>3372</v>
       </c>
       <c r="D13" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E13" t="n">
-        <v>19985</v>
+        <v>35833</v>
       </c>
       <c r="F13" t="n">
-        <v>1564.5</v>
+        <v>2407.4</v>
       </c>
       <c r="G13" t="n">
-        <v>551.1</v>
+        <v>1410.8</v>
       </c>
       <c r="H13" t="n">
-        <v>7828.4</v>
+        <v>17549.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3196</v>
+        <v>3320</v>
       </c>
       <c r="J13" t="n">
-        <v>1965.8</v>
+        <v>2676.6</v>
       </c>
       <c r="K13" t="n">
-        <v>35445.5</v>
+        <v>104671.1</v>
       </c>
       <c r="L13" t="n">
-        <v>179</v>
-      </c>
-      <c r="M13" t="n">
-        <v>124</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2121</v>
+        <v>1573</v>
       </c>
       <c r="O13" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>204</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3577</v>
-      </c>
-      <c r="D14" t="n">
-        <v>238</v>
-      </c>
-      <c r="E14" t="n">
-        <v>18009</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1521.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>627.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8254.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3237</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1827.4</v>
-      </c>
-      <c r="K14" t="n">
-        <v>40547.7</v>
-      </c>
-      <c r="L14" t="n">
-        <v>260</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>2161</v>
-      </c>
-      <c r="O14" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>189</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3579</v>
-      </c>
-      <c r="D15" t="n">
-        <v>240</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18106</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1477.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>709.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8900.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3325</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1927.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>42454.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>274</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>2182</v>
-      </c>
-      <c r="O15" t="n">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>169</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3538</v>
-      </c>
-      <c r="D16" t="n">
-        <v>247</v>
-      </c>
-      <c r="E16" t="n">
-        <v>17863</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1688.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>736</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9179.700000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3319</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2041.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>53470.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>252</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>2129</v>
-      </c>
-      <c r="O16" t="n">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>176</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3457</v>
-      </c>
-      <c r="D17" t="n">
-        <v>234</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18386</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1978.3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>785.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9266.299999999999</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3322</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2102.4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>58641.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>224</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>2263</v>
-      </c>
-      <c r="O17" t="n">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>180</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3521</v>
-      </c>
-      <c r="D18" t="n">
-        <v>236</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17511</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2033.7013</v>
-      </c>
-      <c r="G18" t="n">
-        <v>859.778987</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9707.8914</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3336</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2228.1558</v>
-      </c>
-      <c r="K18" t="n">
-        <v>65062.4967</v>
-      </c>
-      <c r="L18" t="n">
-        <v>272</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="O18" t="n">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>167</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3275</v>
-      </c>
-      <c r="D19" t="n">
-        <v>234</v>
-      </c>
-      <c r="E19" t="n">
-        <v>16799</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2077.9509</v>
-      </c>
-      <c r="G19" t="n">
-        <v>949.3242749999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10151.6524</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3333</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2336.4861</v>
-      </c>
-      <c r="K19" t="n">
-        <v>65371.1231</v>
-      </c>
-      <c r="L19" t="n">
-        <v>274</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1939</v>
-      </c>
-      <c r="O19" t="n">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>158</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3119</v>
-      </c>
-      <c r="D20" t="n">
-        <v>211</v>
-      </c>
-      <c r="E20" t="n">
-        <v>22584</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1819.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1050.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>11222.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3315</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2056</v>
-      </c>
-      <c r="K20" t="n">
-        <v>75051.10000000001</v>
-      </c>
-      <c r="L20" t="n">
-        <v>309</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
-        <v>1739</v>
-      </c>
-      <c r="O20" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>181</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D21" t="n">
-        <v>256</v>
-      </c>
-      <c r="E21" t="n">
-        <v>34349</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2140</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1164.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13171.6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3337</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2203.8</v>
-      </c>
-      <c r="K21" t="n">
-        <v>82850.7</v>
-      </c>
-      <c r="L21" t="n">
-        <v>320</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>1566</v>
-      </c>
-      <c r="O21" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>177</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3413</v>
-      </c>
-      <c r="D22" t="n">
-        <v>260</v>
-      </c>
-      <c r="E22" t="n">
-        <v>35028</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2064.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1268.4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>14584.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3341</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2401</v>
-      </c>
-      <c r="K22" t="n">
-        <v>91789.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>322</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>1584</v>
-      </c>
-      <c r="O22" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
